--- a/regionseng/6/business sector/by kind of activity_nace rev.2.xlsx
+++ b/regionseng/6/business sector/by kind of activity_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4C982-9E81-4FEC-99E5-AA836125D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-60" yWindow="120" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#_);\(#\);\-"/>
@@ -193,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +232,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,6 +331,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -359,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -549,23 +590,23 @@
     <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="11"/>
       <c r="B5" s="12">
         <v>2006</v>
@@ -612,8 +653,14 @@
       <c r="P5" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -662,8 +709,14 @@
       <c r="P6" s="2">
         <v>4311.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="2">
+        <v>6512.9</v>
+      </c>
+      <c r="R6" s="2">
+        <v>7951.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -712,8 +765,14 @@
       <c r="P7" s="3">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="R7" s="3">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -762,8 +821,14 @@
       <c r="P8" s="3">
         <v>167.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="3">
+        <v>264.3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -812,8 +877,14 @@
       <c r="P9" s="3">
         <v>1210</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="3">
+        <v>2505.8000000000002</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3024.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -862,8 +933,14 @@
       <c r="P10" s="3">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="R10" s="3">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -912,8 +989,14 @@
       <c r="P11" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
@@ -962,8 +1045,14 @@
       <c r="P12" s="3">
         <v>481.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3">
+        <v>625.9</v>
+      </c>
+      <c r="R12" s="3">
+        <v>999.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1101,14 @@
       <c r="P13" s="3">
         <v>1939.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="3">
+        <v>2417.6999999999998</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2663.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
@@ -1062,8 +1157,14 @@
       <c r="P14" s="3">
         <v>131.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="3">
+        <v>204.1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1112,8 +1213,14 @@
       <c r="P15" s="3">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="3">
+        <v>43.4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1162,8 +1269,14 @@
       <c r="P16" s="3">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="R16" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1325,14 @@
       <c r="P17" s="3">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="3">
+        <v>63.9</v>
+      </c>
+      <c r="R17" s="3">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
@@ -1262,8 +1381,14 @@
       <c r="P18" s="3">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="R18" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
@@ -1312,8 +1437,14 @@
       <c r="P19" s="3">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="3">
+        <v>44</v>
+      </c>
+      <c r="R19" s="3">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -1362,8 +1493,14 @@
       <c r="P20" s="4">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="R20" s="4">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -1412,8 +1549,14 @@
       <c r="P21" s="4">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="4">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="R21" s="4">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
@@ -1462,8 +1605,14 @@
       <c r="P22" s="4">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="R22" s="4">
+        <v>139.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -1512,23 +1661,32 @@
       <c r="P23" s="4">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="R23" s="4">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="8" t="s">
         <v>3</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="11"/>
       <c r="B27" s="12">
         <v>2006</v>
@@ -1575,8 +1733,14 @@
       <c r="P27" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="8" t="s">
         <v>21</v>
       </c>
@@ -1625,8 +1789,14 @@
       <c r="P28" s="2">
         <v>2772.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="2">
+        <v>4229.7</v>
+      </c>
+      <c r="R28" s="2">
+        <v>5112.3999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
@@ -1675,8 +1845,14 @@
       <c r="P29" s="3">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="R29" s="3">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
@@ -1725,8 +1901,14 @@
       <c r="P30" s="3">
         <v>169.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="3">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="R30" s="3">
+        <v>272.39999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
         <v>22</v>
       </c>
@@ -1775,8 +1957,14 @@
       <c r="P31" s="3">
         <v>1208.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="3">
+        <v>2068.5</v>
+      </c>
+      <c r="R31" s="3">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
         <v>8</v>
       </c>
@@ -1825,8 +2013,14 @@
       <c r="P32" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="R32" s="3">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
@@ -1875,8 +2069,14 @@
       <c r="P33" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="R33" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1925,8 +2125,14 @@
       <c r="P34" s="3">
         <v>524.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="3">
+        <v>780.2</v>
+      </c>
+      <c r="R34" s="3">
+        <v>1049.9000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="11" t="s">
         <v>10</v>
       </c>
@@ -1975,8 +2181,14 @@
       <c r="P35" s="3">
         <v>305.60000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="3">
+        <v>435.2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>471.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
         <v>11</v>
       </c>
@@ -2025,8 +2237,14 @@
       <c r="P36" s="3">
         <v>133.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="3">
+        <v>135.9</v>
+      </c>
+      <c r="R36" s="3">
+        <v>197.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
         <v>12</v>
       </c>
@@ -2075,8 +2293,14 @@
       <c r="P37" s="3">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="R37" s="3">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="11" t="s">
         <v>13</v>
       </c>
@@ -2125,8 +2349,14 @@
       <c r="P38" s="3">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="R38" s="3">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
         <v>14</v>
       </c>
@@ -2175,8 +2405,14 @@
       <c r="P39" s="3">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="3">
+        <v>63.9</v>
+      </c>
+      <c r="R39" s="3">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
         <v>15</v>
       </c>
@@ -2225,8 +2461,14 @@
       <c r="P40" s="3">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="3">
+        <v>11</v>
+      </c>
+      <c r="R40" s="3">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
         <v>16</v>
       </c>
@@ -2275,8 +2517,14 @@
       <c r="P41" s="3">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="R41" s="3">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
         <v>17</v>
       </c>
@@ -2325,8 +2573,14 @@
       <c r="P42" s="4">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R42" s="4">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -2375,8 +2629,14 @@
       <c r="P43" s="4">
         <v>175.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="4">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="R43" s="4">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
         <v>19</v>
       </c>
@@ -2425,8 +2685,14 @@
       <c r="P44" s="4">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="R44" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
         <v>20</v>
       </c>
@@ -2475,8 +2741,14 @@
       <c r="P45" s="4">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="R45" s="4">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -2484,19 +2756,22 @@
       <c r="J46" s="15"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="11"/>
       <c r="B49" s="11">
         <v>2006</v>
@@ -2543,8 +2818,14 @@
       <c r="P49" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="8" t="s">
         <v>21</v>
       </c>
@@ -2593,8 +2874,14 @@
       <c r="P50" s="2">
         <v>52960.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="6">
+        <v>58406</v>
+      </c>
+      <c r="R50" s="17">
+        <v>59446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
         <v>6</v>
       </c>
@@ -2643,8 +2930,14 @@
       <c r="P51" s="3">
         <v>419.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="7">
+        <v>383</v>
+      </c>
+      <c r="R51" s="7">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="11" t="s">
         <v>7</v>
       </c>
@@ -2693,8 +2986,14 @@
       <c r="P52" s="3">
         <v>3631.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52" s="7">
+        <v>4619</v>
+      </c>
+      <c r="R52" s="7">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
         <v>22</v>
       </c>
@@ -2743,8 +3042,14 @@
       <c r="P53" s="3">
         <v>12588.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53" s="7">
+        <v>12049</v>
+      </c>
+      <c r="R53" s="7">
+        <v>11595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -2793,8 +3098,14 @@
       <c r="P54" s="3">
         <v>279</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54" s="7">
+        <v>245</v>
+      </c>
+      <c r="R54" s="7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="11" t="s">
         <v>9</v>
       </c>
@@ -2843,8 +3154,14 @@
       <c r="P55" s="3">
         <v>218</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55" s="7">
+        <v>272</v>
+      </c>
+      <c r="R55" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="11" t="s">
         <v>0</v>
       </c>
@@ -2893,8 +3210,14 @@
       <c r="P56" s="3">
         <v>4890.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56" s="7">
+        <v>5847</v>
+      </c>
+      <c r="R56" s="7">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="11" t="s">
         <v>10</v>
       </c>
@@ -2943,8 +3266,14 @@
       <c r="P57" s="3">
         <v>11822.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57" s="7">
+        <v>14488</v>
+      </c>
+      <c r="R57" s="7">
+        <v>14741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="11" t="s">
         <v>11</v>
       </c>
@@ -2993,8 +3322,14 @@
       <c r="P58" s="3">
         <v>1837.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58" s="7">
+        <v>2848</v>
+      </c>
+      <c r="R58" s="7">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="11" t="s">
         <v>12</v>
       </c>
@@ -3043,8 +3378,14 @@
       <c r="P59" s="3">
         <v>1724.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59" s="7">
+        <v>1745</v>
+      </c>
+      <c r="R59" s="7">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="11" t="s">
         <v>13</v>
       </c>
@@ -3093,8 +3434,14 @@
       <c r="P60" s="3">
         <v>662.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60" s="7">
+        <v>812</v>
+      </c>
+      <c r="R60" s="7">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="11" t="s">
         <v>14</v>
       </c>
@@ -3143,8 +3490,14 @@
       <c r="P61" s="3">
         <v>1930.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61" s="7">
+        <v>1916</v>
+      </c>
+      <c r="R61" s="7">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="11" t="s">
         <v>15</v>
       </c>
@@ -3193,8 +3546,14 @@
       <c r="P62" s="3">
         <v>681.9</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62" s="7">
+        <v>598</v>
+      </c>
+      <c r="R62" s="7">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="11" t="s">
         <v>16</v>
       </c>
@@ -3243,8 +3602,14 @@
       <c r="P63" s="3">
         <v>467.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63" s="7">
+        <v>513</v>
+      </c>
+      <c r="R63" s="7">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="11" t="s">
         <v>17</v>
       </c>
@@ -3293,8 +3658,14 @@
       <c r="P64" s="4">
         <v>1762.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64" s="7">
+        <v>1764</v>
+      </c>
+      <c r="R64" s="18">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="11" t="s">
         <v>18</v>
       </c>
@@ -3343,8 +3714,14 @@
       <c r="P65" s="4">
         <v>7327.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65" s="7">
+        <v>7472</v>
+      </c>
+      <c r="R65" s="18">
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="11" t="s">
         <v>19</v>
       </c>
@@ -3393,8 +3770,14 @@
       <c r="P66" s="4">
         <v>807.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66" s="7">
+        <v>920</v>
+      </c>
+      <c r="R66" s="18">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="11" t="s">
         <v>20</v>
       </c>
@@ -3443,8 +3826,14 @@
       <c r="P67" s="4">
         <v>1908.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67" s="7">
+        <v>1914</v>
+      </c>
+      <c r="R67" s="18">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -3452,19 +3841,22 @@
       <c r="J68" s="16"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="8" t="s">
         <v>5</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:18">
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="11"/>
       <c r="B71" s="14">
         <v>2006</v>
@@ -3511,8 +3903,14 @@
       <c r="P71" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71" s="1">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="8" t="s">
         <v>21</v>
       </c>
@@ -3561,8 +3959,14 @@
       <c r="P72" s="2">
         <v>929.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72" s="2">
+        <v>1045.9000000000001</v>
+      </c>
+      <c r="R72" s="2">
+        <v>1290.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="11" t="s">
         <v>6</v>
       </c>
@@ -3611,8 +4015,14 @@
       <c r="P73" s="3">
         <v>689.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73" s="3">
+        <v>722.2</v>
+      </c>
+      <c r="R73" s="3">
+        <v>1195.4000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
         <v>7</v>
       </c>
@@ -3661,8 +4071,14 @@
       <c r="P74" s="3">
         <v>1253.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74" s="3">
+        <v>1595.5</v>
+      </c>
+      <c r="R74" s="3">
+        <v>2072.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="11" t="s">
         <v>22</v>
       </c>
@@ -3711,8 +4127,14 @@
       <c r="P75" s="3">
         <v>1025.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75" s="3">
+        <v>1166.9000000000001</v>
+      </c>
+      <c r="R75" s="3">
+        <v>1625.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="11" t="s">
         <v>8</v>
       </c>
@@ -3761,8 +4183,14 @@
       <c r="P76" s="3">
         <v>1768.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76" s="3">
+        <v>1929.9</v>
+      </c>
+      <c r="R76" s="3">
+        <v>1979.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="11" t="s">
         <v>9</v>
       </c>
@@ -3811,8 +4239,14 @@
       <c r="P77" s="3">
         <v>703</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77" s="3">
+        <v>752.9</v>
+      </c>
+      <c r="R77" s="3">
+        <v>744.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="11" t="s">
         <v>0</v>
       </c>
@@ -3861,8 +4295,14 @@
       <c r="P78" s="3">
         <v>1428.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78" s="3">
+        <v>1712.9</v>
+      </c>
+      <c r="R78" s="3">
+        <v>1847.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="11" t="s">
         <v>10</v>
       </c>
@@ -3911,8 +4351,14 @@
       <c r="P79" s="3">
         <v>665.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79" s="3">
+        <v>599.5</v>
+      </c>
+      <c r="R79" s="3">
+        <v>791.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="11" t="s">
         <v>11</v>
       </c>
@@ -3961,8 +4407,14 @@
       <c r="P80" s="3">
         <v>635</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80" s="3">
+        <v>657.5</v>
+      </c>
+      <c r="R80" s="3">
+        <v>1017.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="11" t="s">
         <v>12</v>
       </c>
@@ -4011,8 +4463,14 @@
       <c r="P81" s="3">
         <v>411.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81" s="3">
+        <v>388.2</v>
+      </c>
+      <c r="R81" s="3">
+        <v>487.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="11" t="s">
         <v>13</v>
       </c>
@@ -4061,8 +4519,14 @@
       <c r="P82" s="3">
         <v>1539.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82" s="3">
+        <v>878.6</v>
+      </c>
+      <c r="R82" s="3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="11" t="s">
         <v>14</v>
       </c>
@@ -4111,8 +4575,14 @@
       <c r="P83" s="3">
         <v>686.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83" s="3">
+        <v>690.7</v>
+      </c>
+      <c r="R83" s="3">
+        <v>939.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="11" t="s">
         <v>15</v>
       </c>
@@ -4161,8 +4631,14 @@
       <c r="P84" s="3">
         <v>989.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84" s="3">
+        <v>823.4</v>
+      </c>
+      <c r="R84" s="3">
+        <v>534.20000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="11" t="s">
         <v>16</v>
       </c>
@@ -4211,8 +4687,14 @@
       <c r="P85" s="3">
         <v>644</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85" s="3">
+        <v>869.8</v>
+      </c>
+      <c r="R85" s="3">
+        <v>713.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="11" t="s">
         <v>17</v>
       </c>
@@ -4261,8 +4743,14 @@
       <c r="P86" s="4">
         <v>559.79999999999995</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86" s="4">
+        <v>505.6</v>
+      </c>
+      <c r="R86" s="4">
+        <v>719.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="11" t="s">
         <v>18</v>
       </c>
@@ -4311,8 +4799,14 @@
       <c r="P87" s="4">
         <v>980.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87" s="4">
+        <v>1140.0999999999999</v>
+      </c>
+      <c r="R87" s="4">
+        <v>1295.4000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="11" t="s">
         <v>19</v>
       </c>
@@ -4361,8 +4855,14 @@
       <c r="P88" s="4">
         <v>465.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88" s="4">
+        <v>866.3</v>
+      </c>
+      <c r="R88" s="4">
+        <v>1155.9000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="11" t="s">
         <v>20</v>
       </c>
@@ -4410,6 +4910,12 @@
       </c>
       <c r="P89" s="4">
         <v>211.5</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>573.6</v>
+      </c>
+      <c r="R89" s="4">
+        <v>294.8</v>
       </c>
     </row>
   </sheetData>
